--- a/data/qqEmailLogin.xlsx
+++ b/data/qqEmailLogin.xlsx
@@ -51,7 +51,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -61,6 +61,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00AACF91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,7 +86,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -102,6 +107,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1533,9 +1541,9 @@
           <t>安全验证</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
       <c r="I9" s="1" t="n"/>

--- a/data/qqEmailLogin.xlsx
+++ b/data/qqEmailLogin.xlsx
@@ -1541,9 +1541,9 @@
           <t>安全验证</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>Failed</t>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I9" s="1" t="n"/>
